--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_SignalIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_SignalIndicator_JS.xlsx
@@ -124,14 +124,6 @@
   </si>
   <si>
     <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
-    <t>wait(3);
 validate1;
 link_Click(signal_test_link);
 validate2;
@@ -340,24 +332,6 @@
 validate4;</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
-validate_Text_Exists=VT298-0003
-};
-validate4
-{
-validate_Screenshot=VT298_0003
-};</t>
-  </si>
-  <si>
     <t xml:space="preserve">wait(3);
 validate1;
 link_Click(signal_test_link);
@@ -369,56 +343,6 @@
 wait(3);
 validate4;
 </t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
-validate_Text_Exists=VT298-0006
-};
-validate4
-{
-validate_Screenshot=VT298_0006
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(signal_test_link);
-validate2;
-SelectTestToRun(VT298_0012_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT298_0012);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Signal JS Test
-};
-validate3
-{
-validate_Text_Exists=VT298-0012
-};
-validate4
-{
-validate_Screenshot=VT298_0012
-};</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -861,6 +785,81 @@
 {
 validate_Screenshot=VT298-0010
 };</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT298-0003
+};
+validate4
+{
+validate_isIconDisplayed=signalview_xpath,true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT298-0006
+};
+validate4
+{
+validate_isIconDisplayed=signalview_xpath,true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Signal JS Test
+};
+validate3
+{
+validate_Text_Exists=VT298-0012
+};
+validate4
+{
+validate_isIconDisplayed=signalview_xpath,true
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT298_0012_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1345,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2" t="s">
@@ -1372,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1399,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1426,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1453,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1480,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1507,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1534,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1561,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1588,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1615,10 +1616,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1642,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1669,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1696,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1721,10 +1722,10 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1748,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1775,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1802,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1829,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1856,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1883,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_SignalIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_SignalIndicator_JS.xlsx
@@ -136,30 +136,6 @@
 validate4;</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(signal_test_link);
-validate2;
-SelectTestToRun(VT298_0020_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-wifi_Mode(OFF);
-wait(2);
-wifi_Mode(ON);
-wait(2);
-press_Key(Home);
-launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-wait(2);
-validate4;
-checkCallbackValues(essid_xpath);
-checkCallbackValues(ipaddress_xpath);
-checkCallbackValues(signalStrength_xpath);
-signalCallbackcount(results_id,com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
-</t>
-  </si>
-  <si>
     <t>wait(3);
 validate1;
 link_Click(signal_test_link);
@@ -860,6 +836,29 @@
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signal_test_link);
+validate2;
+SelectTestToRun(VT298_0020_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+wifi_Mode(OFF);
+wait(2);
+wifi_Mode(ON);
+wait(2);
+press_Key(Home);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+wait(2);
+validate4;
+checkCallbackValues(essid_xpath);
+checkCallbackValues(ipaddress_xpath);
+checkCallbackValues(signalStrength_xpath);
+signalCallbackcount(results_id,com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1279,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1346,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="2" t="s">
@@ -1376,13 +1375,13 @@
         <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="315.75" thickBot="1">
+    <row r="4" spans="1:11" ht="304.5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1400,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1427,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1454,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1481,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1508,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1535,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1562,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1589,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1616,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1643,10 +1642,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1670,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1697,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1722,10 +1721,10 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1749,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1776,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1803,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1830,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1857,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1884,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
